--- a/data1.xlsx
+++ b/data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="573">
   <si>
     <t>startingMonth</t>
   </si>
@@ -1537,6 +1537,111 @@
     <t>activityType</t>
   </si>
   <si>
+    <t>consentForms_3</t>
+  </si>
+  <si>
+    <t>consentForms_4</t>
+  </si>
+  <si>
+    <t>copy-1-of-recordsFilling</t>
+  </si>
+  <si>
+    <t>question1</t>
+  </si>
+  <si>
+    <t>question1_2</t>
+  </si>
+  <si>
+    <t>recordsFilling</t>
+  </si>
+  <si>
+    <t>recordsSecure_3</t>
+  </si>
+  <si>
+    <t>recordsSecure_4</t>
+  </si>
+  <si>
+    <t>vmmcMinutes</t>
+  </si>
+  <si>
+    <t>are_guidelines_or_protocols_for_medical_emergencies_displayed_in_the_proced</t>
+  </si>
+  <si>
+    <t>bins</t>
+  </si>
+  <si>
+    <t>copy-1-of-infection_prevention_control_ipc_and_emergency_management</t>
+  </si>
+  <si>
+    <t>darkClerk</t>
+  </si>
+  <si>
+    <t>darkClerk_2</t>
+  </si>
+  <si>
+    <t>dcWorkPlan</t>
+  </si>
+  <si>
+    <t>emergencyCart_3</t>
+  </si>
+  <si>
+    <t>emergencyCart_4</t>
+  </si>
+  <si>
+    <t>emergencyNumber</t>
+  </si>
+  <si>
+    <t>emergencyTraining</t>
+  </si>
+  <si>
+    <t>incinerator_3</t>
+  </si>
+  <si>
+    <t>incinerator_4</t>
+  </si>
+  <si>
+    <t>infection_prevention_control_ipc_and_emergency_management</t>
+  </si>
+  <si>
+    <t>operatingTheatrePrivacy</t>
+  </si>
+  <si>
+    <t>rbfFacilityPlan</t>
+  </si>
+  <si>
+    <t>runningWater</t>
+  </si>
+  <si>
+    <t>sterileKitsStorage</t>
+  </si>
+  <si>
+    <t>vmmcGuidelines</t>
+  </si>
+  <si>
+    <t>vmmcPosters</t>
+  </si>
+  <si>
+    <t>certifiedCircumciser</t>
+  </si>
+  <si>
+    <t>communityHealthNurses</t>
+  </si>
+  <si>
+    <t>darkClerk_3</t>
+  </si>
+  <si>
+    <t>darkClerk_4</t>
+  </si>
+  <si>
+    <t>is_there_a_trained_vmmc_assistant</t>
+  </si>
+  <si>
+    <t>staffingCapabilities</t>
+  </si>
+  <si>
+    <t>vmmcMobilisers</t>
+  </si>
+  <si>
     <t>section</t>
   </si>
   <si>
@@ -1586,6 +1691,27 @@
   </si>
   <si>
     <t>RBF</t>
+  </si>
+  <si>
+    <t>Client_Name Client_Address Client_date_of_birth/age HIV_Testing_Offered/_HIV_Status_data Medical_Screening_and_Physical_Examination Provider_Name Post_procedure_reviews_(Day_2_and/or_7)</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Waiting Registration Education History Physical_Exam HTC Surgical_Procedure Recovery</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>VMMC_Manual IPC_Protocols Emergency_Management_Guidelines</t>
+  </si>
+  <si>
+    <t>Registration Education HIV_Testing_and_Counselling Individual_Counselling Medical_Screening_and_Examination Surgery</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>c</t>
@@ -1964,13 +2090,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:SS4"/>
+  <dimension ref="A1:UB4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:513">
+    <row r="1" spans="1:548">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3507,122 +3633,317 @@
       <c r="SS1" s="1" t="s">
         <v>511</v>
       </c>
+      <c r="ST1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="SU1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="SV1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="SW1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="SX1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="SY1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="SZ1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="TA1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="TB1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="TC1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="TD1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="TE1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="TF1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="TG1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="TH1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="TI1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="TJ1" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="TK1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="TL1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="TM1" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="TN1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="TO1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="TP1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="TQ1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="TR1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="TS1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="TT1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="TU1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="TV1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="TW1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="TX1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="TY1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="TZ1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="UA1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="UB1" s="1" t="s">
+        <v>546</v>
+      </c>
     </row>
-    <row r="2" spans="1:513">
+    <row r="2" spans="1:548">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="C2" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="D2" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="E2" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="DF2" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="DJ2" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="SE2" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="SF2" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="SG2" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="SJ2" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="SN2" t="s">
-        <v>523</v>
+        <v>558</v>
       </c>
       <c r="SO2" t="s">
-        <v>524</v>
-      </c>
-      <c r="SP2" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="SQ2" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
       <c r="SR2" t="s">
-        <v>529</v>
-      </c>
-      <c r="SS2" t="s">
-        <v>530</v>
+        <v>550</v>
+      </c>
+      <c r="ST2" t="s">
+        <v>550</v>
+      </c>
+      <c r="SU2" t="s">
+        <v>550</v>
+      </c>
+      <c r="SW2" t="s">
+        <v>550</v>
+      </c>
+      <c r="TX2" t="s">
+        <v>566</v>
+      </c>
+      <c r="TY2" t="s">
+        <v>569</v>
+      </c>
+      <c r="TZ2" t="s">
+        <v>570</v>
+      </c>
+      <c r="UA2" t="s">
+        <v>571</v>
+      </c>
+      <c r="UB2" t="s">
+        <v>572</v>
       </c>
     </row>
-    <row r="3" spans="1:513">
+    <row r="3" spans="1:548">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="CE3" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="CX3" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="SF3" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="SG3" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="SJ3" t="s">
-        <v>521</v>
+        <v>556</v>
       </c>
       <c r="SN3" t="s">
-        <v>523</v>
-      </c>
-      <c r="SO3" t="s">
-        <v>525</v>
-      </c>
-      <c r="SP3" t="s">
-        <v>527</v>
-      </c>
-      <c r="SQ3" t="s">
-        <v>528</v>
-      </c>
-      <c r="SS3" t="s">
-        <v>530</v>
+        <v>558</v>
+      </c>
+      <c r="SX3" t="s">
+        <v>550</v>
+      </c>
+      <c r="SY3" t="s">
+        <v>550</v>
+      </c>
+      <c r="SZ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="TA3" t="s">
+        <v>561</v>
+      </c>
+      <c r="TC3" t="s">
+        <v>550</v>
+      </c>
+      <c r="TD3" t="s">
+        <v>550</v>
+      </c>
+      <c r="TF3" t="s">
+        <v>550</v>
+      </c>
+      <c r="TG3" t="s">
+        <v>550</v>
+      </c>
+      <c r="TH3" t="s">
+        <v>550</v>
+      </c>
+      <c r="TJ3" t="s">
+        <v>560</v>
+      </c>
+      <c r="TK3" t="s">
+        <v>550</v>
+      </c>
+      <c r="TL3" t="s">
+        <v>550</v>
+      </c>
+      <c r="TM3" t="s">
+        <v>550</v>
+      </c>
+      <c r="TN3" t="s">
+        <v>562</v>
+      </c>
+      <c r="TO3" t="s">
+        <v>563</v>
+      </c>
+      <c r="TP3" t="s">
+        <v>562</v>
+      </c>
+      <c r="TS3" t="s">
+        <v>561</v>
+      </c>
+      <c r="TX3" t="s">
+        <v>567</v>
+      </c>
+      <c r="TY3" t="s">
+        <v>569</v>
+      </c>
+      <c r="TZ3" t="s">
+        <v>570</v>
+      </c>
+      <c r="UB3" t="s">
+        <v>572</v>
       </c>
     </row>
-    <row r="4" spans="1:513">
+    <row r="4" spans="1:548">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="SF4" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="SG4" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="SJ4" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="SN4" t="s">
-        <v>523</v>
-      </c>
-      <c r="SO4" t="s">
-        <v>526</v>
-      </c>
-      <c r="SP4" t="s">
-        <v>527</v>
-      </c>
-      <c r="SQ4" t="s">
-        <v>528</v>
-      </c>
-      <c r="SS4" t="s">
-        <v>530</v>
+        <v>558</v>
+      </c>
+      <c r="TB4" t="s">
+        <v>550</v>
+      </c>
+      <c r="TQ4" t="s">
+        <v>550</v>
+      </c>
+      <c r="TR4" t="s">
+        <v>562</v>
+      </c>
+      <c r="TT4" t="s">
+        <v>550</v>
+      </c>
+      <c r="TU4" t="s">
+        <v>550</v>
+      </c>
+      <c r="TV4" t="s">
+        <v>564</v>
+      </c>
+      <c r="TW4" t="s">
+        <v>565</v>
+      </c>
+      <c r="TX4" t="s">
+        <v>568</v>
+      </c>
+      <c r="TY4" t="s">
+        <v>569</v>
+      </c>
+      <c r="TZ4" t="s">
+        <v>570</v>
+      </c>
+      <c r="UB4" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/data1.xlsx
+++ b/data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="576">
   <si>
     <t>startingMonth</t>
   </si>
@@ -1537,109 +1537,121 @@
     <t>activityType</t>
   </si>
   <si>
+    <t>certifiedCircumciser</t>
+  </si>
+  <si>
+    <t>is_there_a_trained_vmmc_assistant</t>
+  </si>
+  <si>
+    <t>darkClerk</t>
+  </si>
+  <si>
+    <t>darkClerk_2</t>
+  </si>
+  <si>
+    <t>staffingCapabilities</t>
+  </si>
+  <si>
+    <t>communityHealthNurses</t>
+  </si>
+  <si>
+    <t>vmmcMobilisers</t>
+  </si>
+  <si>
+    <t>vmmcPosters</t>
+  </si>
+  <si>
+    <t>vmmcGuidelines</t>
+  </si>
+  <si>
+    <t>darkClerk_3</t>
+  </si>
+  <si>
+    <t>darkClerk_4</t>
+  </si>
+  <si>
+    <t>operatingTheatrePrivacy</t>
+  </si>
+  <si>
+    <t>runningWater</t>
+  </si>
+  <si>
+    <t>sterileKitsStorage</t>
+  </si>
+  <si>
+    <t>bins</t>
+  </si>
+  <si>
+    <t>incinerator_3</t>
+  </si>
+  <si>
+    <t>incinerator_4</t>
+  </si>
+  <si>
+    <t>rbfFacilityPlan</t>
+  </si>
+  <si>
+    <t>dcWorkPlan</t>
+  </si>
+  <si>
+    <t>are_guidelines_or_protocols_for_medical_emergencies_displayed_in_the_proced</t>
+  </si>
+  <si>
+    <t>emergencyCart_3</t>
+  </si>
+  <si>
+    <t>emergencyCart_4</t>
+  </si>
+  <si>
+    <t>emergencyTraining</t>
+  </si>
+  <si>
+    <t>emergencyNumber</t>
+  </si>
+  <si>
+    <t>recordsSecure_3</t>
+  </si>
+  <si>
+    <t>recordsSecure_4</t>
+  </si>
+  <si>
+    <t>recordsFilling</t>
+  </si>
+  <si>
+    <t>copy-1-of-recordsFilling</t>
+  </si>
+  <si>
     <t>consentForms_3</t>
   </si>
   <si>
     <t>consentForms_4</t>
   </si>
   <si>
-    <t>copy-1-of-recordsFilling</t>
-  </si>
-  <si>
     <t>question1</t>
   </si>
   <si>
     <t>question1_2</t>
   </si>
   <si>
-    <t>recordsFilling</t>
-  </si>
-  <si>
-    <t>recordsSecure_3</t>
-  </si>
-  <si>
-    <t>recordsSecure_4</t>
-  </si>
-  <si>
     <t>vmmcMinutes</t>
   </si>
   <si>
-    <t>are_guidelines_or_protocols_for_medical_emergencies_displayed_in_the_proced</t>
-  </si>
-  <si>
-    <t>bins</t>
-  </si>
-  <si>
-    <t>copy-1-of-infection_prevention_control_ipc_and_emergency_management</t>
-  </si>
-  <si>
-    <t>darkClerk</t>
-  </si>
-  <si>
-    <t>darkClerk_2</t>
-  </si>
-  <si>
-    <t>dcWorkPlan</t>
-  </si>
-  <si>
-    <t>emergencyCart_3</t>
-  </si>
-  <si>
-    <t>emergencyCart_4</t>
-  </si>
-  <si>
-    <t>emergencyNumber</t>
-  </si>
-  <si>
-    <t>emergencyTraining</t>
-  </si>
-  <si>
-    <t>incinerator_3</t>
-  </si>
-  <si>
-    <t>incinerator_4</t>
-  </si>
-  <si>
-    <t>infection_prevention_control_ipc_and_emergency_management</t>
-  </si>
-  <si>
-    <t>operatingTheatrePrivacy</t>
-  </si>
-  <si>
-    <t>rbfFacilityPlan</t>
-  </si>
-  <si>
-    <t>runningWater</t>
-  </si>
-  <si>
-    <t>sterileKitsStorage</t>
-  </si>
-  <si>
-    <t>vmmcGuidelines</t>
-  </si>
-  <si>
-    <t>vmmcPosters</t>
-  </si>
-  <si>
-    <t>certifiedCircumciser</t>
-  </si>
-  <si>
-    <t>communityHealthNurses</t>
-  </si>
-  <si>
-    <t>darkClerk_3</t>
-  </si>
-  <si>
-    <t>darkClerk_4</t>
-  </si>
-  <si>
-    <t>is_there_a_trained_vmmc_assistant</t>
-  </si>
-  <si>
-    <t>staffingCapabilities</t>
-  </si>
-  <si>
-    <t>vmmcMobilisers</t>
+    <t>activityType_2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>submissionMonth</t>
+  </si>
+  <si>
+    <t>submissionYear</t>
   </si>
   <si>
     <t>section</t>
@@ -1660,16 +1672,16 @@
     <t>April</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>May</t>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>June</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>4</t>
@@ -1678,40 +1690,37 @@
     <t>0</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2025-07-09T09:16:37.378616Z</t>
-  </si>
-  <si>
-    <t>2025-07-09T09:13:39.444947Z</t>
-  </si>
-  <si>
-    <t>2025-07-09T09:10:23.463749Z</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2025-07-10T10:41:35.148474Z</t>
+  </si>
+  <si>
+    <t>2025-07-10T10:38:09.504323Z</t>
+  </si>
+  <si>
+    <t>2025-07-10T10:31:50.954033Z</t>
   </si>
   <si>
     <t>RBF</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Waiting Registration Education History Physical_Exam HTC Surgical_Procedure Recovery</t>
+  </si>
+  <si>
+    <t>Registration Education Individual_Counselling Surgery</t>
+  </si>
+  <si>
+    <t>VMMC_Manual IPC_Protocols Emergency_Management_Guidelines</t>
+  </si>
+  <si>
     <t>Client_Name Client_Address Client_date_of_birth/age HIV_Testing_Offered/_HIV_Status_data Medical_Screening_and_Physical_Examination Provider_Name Post_procedure_reviews_(Day_2_and/or_7)</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Waiting Registration Education History Physical_Exam HTC Surgical_Procedure Recovery</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>VMMC_Manual IPC_Protocols Emergency_Management_Guidelines</t>
-  </si>
-  <si>
-    <t>Registration Education HIV_Testing_and_Counselling Individual_Counselling Medical_Screening_and_Examination Surgery</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>July</t>
   </si>
   <si>
     <t>c</t>
@@ -1723,13 +1732,13 @@
     <t>a</t>
   </si>
   <si>
-    <t>LUPANE</t>
-  </si>
-  <si>
-    <t>St Luke's Mission Hospital</t>
-  </si>
-  <si>
-    <t>[{'calculatedMonth': 'April', 'calculatedYear': '2024', 'calculated_month_numeric': '4', 'cifno': '0', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '0', 'mrfmcs': '0', 'registermcs': '0'}, {'calculatedMonth': 'May', 'calculatedYear': '2024', 'calculated_month_numeric': '5', 'cifno': '2', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '2', 'current_iteration': '1', 'mrfmcs': '2', 'registermcs': '2'}]</t>
+    <t>MATOBO</t>
+  </si>
+  <si>
+    <t>Maphisa Hospital</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '0', 'comments_and_recommendations_data_triangulation': '', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '0', 'mrfmcs': '0', 'registermcs': '0'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '2', 'comments_and_recommendations_data_triangulation': '', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '2', 'current_iteration': '1', 'mrfmcs': '2', 'registermcs': '2'}, {'calculatedMonth': 'June', 'calculatedYear': '2025', 'calculated_month_numeric': '6', 'cifno': '3', 'comments_and_recommendations_data_triangulation': 'All records tallied', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '3', 'current_iteration': '2', 'mrfmcs': '3', 'registermcs': '3'}]</t>
   </si>
   <si>
     <t>amutenha</t>
@@ -2090,13 +2099,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:UB4"/>
+  <dimension ref="A1:UF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:548">
+    <row r="1" spans="1:552">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3738,212 +3747,245 @@
       <c r="UB1" s="1" t="s">
         <v>546</v>
       </c>
+      <c r="UC1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="UD1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="UE1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="UF1" s="1" t="s">
+        <v>550</v>
+      </c>
     </row>
-    <row r="2" spans="1:548">
+    <row r="2" spans="1:552">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="DF2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="DJ2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="SE2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="SF2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="SG2" t="s">
+        <v>558</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>559</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>562</v>
+      </c>
+      <c r="TM2" t="s">
         <v>554</v>
       </c>
-      <c r="SJ2" t="s">
-        <v>555</v>
-      </c>
-      <c r="SN2" t="s">
-        <v>558</v>
-      </c>
-      <c r="SO2" t="s">
-        <v>550</v>
-      </c>
-      <c r="SQ2" t="s">
-        <v>559</v>
-      </c>
-      <c r="SR2" t="s">
-        <v>550</v>
-      </c>
-      <c r="ST2" t="s">
-        <v>550</v>
-      </c>
-      <c r="SU2" t="s">
-        <v>550</v>
-      </c>
-      <c r="SW2" t="s">
-        <v>550</v>
-      </c>
-      <c r="TX2" t="s">
-        <v>566</v>
-      </c>
-      <c r="TY2" t="s">
+      <c r="TO2" t="s">
+        <v>554</v>
+      </c>
+      <c r="TP2" t="s">
+        <v>567</v>
+      </c>
+      <c r="TQ2" t="s">
+        <v>554</v>
+      </c>
+      <c r="TS2" t="s">
+        <v>554</v>
+      </c>
+      <c r="TU2" t="s">
+        <v>554</v>
+      </c>
+      <c r="TV2" t="s">
+        <v>562</v>
+      </c>
+      <c r="TZ2" t="s">
+        <v>568</v>
+      </c>
+      <c r="UA2">
+        <v>2025</v>
+      </c>
+      <c r="UB2" t="s">
         <v>569</v>
       </c>
-      <c r="TZ2" t="s">
-        <v>570</v>
-      </c>
-      <c r="UA2" t="s">
-        <v>571</v>
-      </c>
-      <c r="UB2" t="s">
+      <c r="UC2" t="s">
         <v>572</v>
       </c>
+      <c r="UD2" t="s">
+        <v>573</v>
+      </c>
+      <c r="UE2" t="s">
+        <v>574</v>
+      </c>
+      <c r="UF2" t="s">
+        <v>575</v>
+      </c>
     </row>
-    <row r="3" spans="1:548">
+    <row r="3" spans="1:552">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="CE3" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="CX3" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="SF3" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="SG3" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="SJ3" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="SN3" t="s">
-        <v>558</v>
+        <v>562</v>
+      </c>
+      <c r="SQ3" t="s">
+        <v>564</v>
+      </c>
+      <c r="SV3" t="s">
+        <v>554</v>
+      </c>
+      <c r="SW3" t="s">
+        <v>566</v>
       </c>
       <c r="SX3" t="s">
-        <v>550</v>
-      </c>
-      <c r="SY3" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="SZ3" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="TA3" t="s">
-        <v>561</v>
+        <v>554</v>
+      </c>
+      <c r="TB3" t="s">
+        <v>554</v>
       </c>
       <c r="TC3" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="TD3" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="TF3" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="TG3" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="TH3" t="s">
-        <v>550</v>
-      </c>
-      <c r="TJ3" t="s">
-        <v>560</v>
+        <v>554</v>
+      </c>
+      <c r="TI3" t="s">
+        <v>554</v>
       </c>
       <c r="TK3" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="TL3" t="s">
-        <v>550</v>
-      </c>
-      <c r="TM3" t="s">
-        <v>550</v>
-      </c>
-      <c r="TN3" t="s">
+        <v>563</v>
+      </c>
+      <c r="TV3" t="s">
         <v>562</v>
       </c>
-      <c r="TO3" t="s">
-        <v>563</v>
-      </c>
-      <c r="TP3" t="s">
-        <v>562</v>
-      </c>
-      <c r="TS3" t="s">
-        <v>561</v>
-      </c>
-      <c r="TX3" t="s">
-        <v>567</v>
-      </c>
-      <c r="TY3" t="s">
-        <v>569</v>
-      </c>
       <c r="TZ3" t="s">
+        <v>568</v>
+      </c>
+      <c r="UA3">
+        <v>2025</v>
+      </c>
+      <c r="UB3" t="s">
         <v>570</v>
       </c>
-      <c r="UB3" t="s">
+      <c r="UC3" t="s">
         <v>572</v>
       </c>
+      <c r="UD3" t="s">
+        <v>573</v>
+      </c>
+      <c r="UF3" t="s">
+        <v>575</v>
+      </c>
     </row>
-    <row r="4" spans="1:548">
+    <row r="4" spans="1:552">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="SF4" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="SG4" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="SJ4" t="s">
+        <v>561</v>
+      </c>
+      <c r="SN4" t="s">
+        <v>562</v>
+      </c>
+      <c r="SO4" t="s">
+        <v>554</v>
+      </c>
+      <c r="SP4" t="s">
+        <v>563</v>
+      </c>
+      <c r="SR4" t="s">
+        <v>563</v>
+      </c>
+      <c r="SS4" t="s">
+        <v>565</v>
+      </c>
+      <c r="ST4" t="s">
+        <v>563</v>
+      </c>
+      <c r="SU4" t="s">
         <v>557</v>
       </c>
-      <c r="SN4" t="s">
-        <v>558</v>
-      </c>
-      <c r="TB4" t="s">
-        <v>550</v>
-      </c>
-      <c r="TQ4" t="s">
-        <v>550</v>
-      </c>
-      <c r="TR4" t="s">
+      <c r="SY4" t="s">
+        <v>563</v>
+      </c>
+      <c r="TV4" t="s">
         <v>562</v>
       </c>
-      <c r="TT4" t="s">
-        <v>550</v>
-      </c>
-      <c r="TU4" t="s">
-        <v>550</v>
-      </c>
-      <c r="TV4" t="s">
-        <v>564</v>
-      </c>
-      <c r="TW4" t="s">
-        <v>565</v>
-      </c>
-      <c r="TX4" t="s">
+      <c r="TZ4" t="s">
         <v>568</v>
       </c>
-      <c r="TY4" t="s">
-        <v>569</v>
-      </c>
-      <c r="TZ4" t="s">
-        <v>570</v>
+      <c r="UA4">
+        <v>2025</v>
       </c>
       <c r="UB4" t="s">
+        <v>571</v>
+      </c>
+      <c r="UC4" t="s">
         <v>572</v>
+      </c>
+      <c r="UD4" t="s">
+        <v>573</v>
+      </c>
+      <c r="UF4" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
